--- a/mibr.xlsx
+++ b/mibr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Miada\Documents\GitHub\p1_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Insper\2º Semestre\Cdados2\p1_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4520D5FE-D577-4B6A-A9CE-5D9007269EB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ABA448-8D4B-4F21-AE0B-C6D87E52E928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="720">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2352,6 +2352,9 @@
   </si>
   <si>
     <t>devido ao surto de coronavirus a mibr não poderá jogar pela upper do seu grupo na flashpoint. força mibr 🙏</t>
+  </si>
+  <si>
+    <t>Classificação</t>
   </si>
 </sst>
 </file>
@@ -2410,10 +2413,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2755,16 +2762,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+    <sheetView topLeftCell="A205" workbookViewId="0">
       <selection activeCell="B294" sqref="B294"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="187" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2772,7 +2779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2780,7 +2787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2788,7 +2795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2796,7 +2803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2804,7 +2811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2820,7 +2827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2828,7 +2835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2836,7 +2843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2844,7 +2851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2852,7 +2859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2860,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2868,7 +2875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2876,7 +2883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2884,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2892,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2900,7 +2907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2908,7 +2915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2916,7 +2923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2924,7 +2931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2932,7 +2939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2940,7 +2947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2948,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2956,7 +2963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2964,7 +2971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2972,7 +2979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2980,7 +2987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2988,7 +2995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2996,7 +3003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3004,7 +3011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3012,7 +3019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3020,7 +3027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3028,7 +3035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3036,7 +3043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3044,7 +3051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3052,7 +3059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3060,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3076,7 +3083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3084,7 +3091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3092,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3100,7 +3107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3108,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3116,7 +3123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3124,7 +3131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3132,7 +3139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3140,7 +3147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3148,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3156,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3164,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3172,7 +3179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3180,7 +3187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3188,7 +3195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3196,7 +3203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3204,7 +3211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3212,7 +3219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3220,7 +3227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3228,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3236,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3244,7 +3251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3252,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3260,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3268,7 +3275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3276,7 +3283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3284,7 +3291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3292,7 +3299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3300,7 +3307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3308,7 +3315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3316,7 +3323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3324,7 +3331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3332,7 +3339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3340,7 +3347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3348,7 +3355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3356,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3364,7 +3371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3372,7 +3379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3380,7 +3387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3388,7 +3395,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3396,7 +3403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3404,7 +3411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3412,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3420,7 +3427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3428,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3436,7 +3443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3444,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3452,7 +3459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3460,7 +3467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3468,7 +3475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3476,7 +3483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3484,7 +3491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3492,7 +3499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3500,7 +3507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3508,7 +3515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3516,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3524,7 +3531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3532,7 +3539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3540,7 +3547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3548,7 +3555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3556,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3564,7 +3571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3572,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3580,7 +3587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3588,7 +3595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3596,7 +3603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3604,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3612,7 +3619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3620,7 +3627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3628,7 +3635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3636,7 +3643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3644,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3652,7 +3659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3660,7 +3667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3668,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3676,7 +3683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3684,7 +3691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3692,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3708,7 +3715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3716,7 +3723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3724,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3732,7 +3739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -3740,7 +3747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3748,7 +3755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3756,7 +3763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3764,7 +3771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3772,7 +3779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3780,7 +3787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3788,7 +3795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3796,7 +3803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3804,7 +3811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3812,7 +3819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3820,7 +3827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -3828,7 +3835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3836,7 +3843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -3844,7 +3851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3852,7 +3859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3860,7 +3867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3868,7 +3875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3876,7 +3883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3884,7 +3891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3892,7 +3899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3900,7 +3907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3908,7 +3915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3916,7 +3923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3924,7 +3931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3932,7 +3939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3940,7 +3947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3956,7 +3963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3964,7 +3971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3972,7 +3979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3980,7 +3987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3988,7 +3995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -3996,7 +4003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4004,7 +4011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4012,7 +4019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4020,7 +4027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4028,7 +4035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4036,7 +4043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4044,7 +4051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4052,7 +4059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4060,7 +4067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4068,7 +4075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4076,7 +4083,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4084,7 +4091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4092,7 +4099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4100,7 +4107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4108,7 +4115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4116,7 +4123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4124,7 +4131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4132,7 +4139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4140,7 +4147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4148,7 +4155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4156,7 +4163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4164,7 +4171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4172,7 +4179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4180,7 +4187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4188,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4196,7 +4203,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4204,7 +4211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4212,7 +4219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4220,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4228,7 +4235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4244,7 +4251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
         <f>B443</f>
         <v>0</v>
@@ -4253,7 +4260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -4261,7 +4268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -4269,7 +4276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -4277,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -4285,7 +4292,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -4301,7 +4308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -4309,7 +4316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -4317,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -4325,7 +4332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -4333,7 +4340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -4341,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -4349,7 +4356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -4357,7 +4364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -4365,7 +4372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -4373,7 +4380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -4381,7 +4388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -4389,7 +4396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -4397,7 +4404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -4405,7 +4412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -4413,7 +4420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -4421,7 +4428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -4429,7 +4436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -4437,7 +4444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -4445,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -4453,7 +4460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -4461,7 +4468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -4469,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -4477,7 +4484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4485,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -4493,7 +4500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -4501,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -4509,7 +4516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -4517,7 +4524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -4525,7 +4532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -4533,7 +4540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -4541,7 +4548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -4549,7 +4556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -4557,7 +4564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -4565,7 +4572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -4573,7 +4580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -4581,7 +4588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -4589,7 +4596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -4597,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -4605,7 +4612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -4613,7 +4620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -4621,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -4629,7 +4636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -4637,7 +4644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -4645,7 +4652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -4653,7 +4660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -4661,7 +4668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -4669,7 +4676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -4677,7 +4684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -4685,7 +4692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -4693,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -4701,7 +4708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -4709,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -4717,7 +4724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -4725,7 +4732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -4733,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -4741,7 +4748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -4749,7 +4756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -4757,7 +4764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -4765,7 +4772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -4773,7 +4780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -4781,7 +4788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -4789,7 +4796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -4797,7 +4804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -4805,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -4813,7 +4820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -4821,7 +4828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -4829,7 +4836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -4837,7 +4844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -4845,7 +4852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -4853,7 +4860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -4861,7 +4868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -4869,7 +4876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -4877,7 +4884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -4885,7 +4892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -4893,7 +4900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -4901,7 +4908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -4909,7 +4916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -4917,7 +4924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -4925,7 +4932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -4933,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -4941,7 +4948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -4949,7 +4956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -4957,7 +4964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -4965,7 +4972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -4973,7 +4980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -4981,7 +4988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -4989,7 +4996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -4997,7 +5004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -5005,7 +5012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -5013,7 +5020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -5021,7 +5028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -5029,7 +5036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -5037,7 +5044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -5045,7 +5052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -5053,7 +5060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -5061,7 +5068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -5069,7 +5076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -5077,7 +5084,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -5085,7 +5092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -5093,7 +5100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -5101,7 +5108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -5109,542 +5116,542 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -5656,1610 +5663,2571 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A319"/>
+  <dimension ref="A1:B319"/>
   <sheetViews>
-    <sheetView topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="B344" sqref="B344:B346"/>
+    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+      <selection activeCell="H303" sqref="H303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="3">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="3">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="3">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3">
+        <v>2</v>
+      </c>
+      <c r="B56" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3">
+        <v>3</v>
+      </c>
+      <c r="B58" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="3">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
+        <v>2</v>
+      </c>
+      <c r="B62" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>3</v>
+      </c>
+      <c r="B70" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>2</v>
+      </c>
+      <c r="B75" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>2</v>
+      </c>
+      <c r="B76" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>2</v>
+      </c>
+      <c r="B79" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>2</v>
+      </c>
+      <c r="B85" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>2</v>
+      </c>
+      <c r="B87" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>2</v>
+      </c>
+      <c r="B91" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>3</v>
+      </c>
+      <c r="B97" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>2</v>
+      </c>
+      <c r="B98" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>3</v>
+      </c>
+      <c r="B105" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <v>3</v>
+      </c>
+      <c r="B110" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="3">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="3">
+        <v>3</v>
+      </c>
+      <c r="B116" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="3">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="3">
+        <v>2</v>
+      </c>
+      <c r="B118" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="3">
+        <v>3</v>
+      </c>
+      <c r="B119" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="3">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="3">
+        <v>2</v>
+      </c>
+      <c r="B121" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="3">
+        <v>2</v>
+      </c>
+      <c r="B122" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="3">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="3">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="3">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="3">
+        <v>2</v>
+      </c>
+      <c r="B126" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="3">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="3">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="3">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="3">
+        <v>3</v>
+      </c>
+      <c r="B131" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="3">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="3">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="3">
+        <v>2</v>
+      </c>
+      <c r="B134" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="3">
+        <v>3</v>
+      </c>
+      <c r="B135" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="3">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="3">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="3">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="3">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="3">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="3">
+        <v>2</v>
+      </c>
+      <c r="B141" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="3">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="3">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="3">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="3">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="3">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="3">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="3">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="3">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="3">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="3">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="3">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="3">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="3">
+        <v>2</v>
+      </c>
+      <c r="B154" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="3">
+        <v>3</v>
+      </c>
+      <c r="B155" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="3">
+        <v>3</v>
+      </c>
+      <c r="B156" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="3">
+        <v>3</v>
+      </c>
+      <c r="B157" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="3">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="3">
+        <v>2</v>
+      </c>
+      <c r="B159" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="3">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="3">
+        <v>3</v>
+      </c>
+      <c r="B161" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="3">
+        <v>2</v>
+      </c>
+      <c r="B162" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="3">
+        <v>3</v>
+      </c>
+      <c r="B163" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="3">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="3">
+        <v>1</v>
+      </c>
+      <c r="B165" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="3">
+        <v>3</v>
+      </c>
+      <c r="B166" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="3">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="3">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="3">
+        <v>2</v>
+      </c>
+      <c r="B169" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="3">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="3">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="3">
+        <v>3</v>
+      </c>
+      <c r="B172" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="3">
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="3">
+        <v>2</v>
+      </c>
+      <c r="B174" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="3">
+        <v>3</v>
+      </c>
+      <c r="B175" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="3">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="3">
+        <v>2</v>
+      </c>
+      <c r="B177" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="3">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="3">
+        <v>1</v>
+      </c>
+      <c r="B179" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="3">
+        <v>2</v>
+      </c>
+      <c r="B180" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="3">
+        <v>3</v>
+      </c>
+      <c r="B181" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="3">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="3">
+        <v>3</v>
+      </c>
+      <c r="B183" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="3">
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="3">
+        <v>1</v>
+      </c>
+      <c r="B185" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="3">
+        <v>3</v>
+      </c>
+      <c r="B186" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="3">
+        <v>3</v>
+      </c>
+      <c r="B187" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="3">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="3">
+        <v>2</v>
+      </c>
+      <c r="B189" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="3">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="3">
+        <v>3</v>
+      </c>
+      <c r="B191" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="3">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="3">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="3">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="3">
+        <v>2</v>
+      </c>
+      <c r="B195" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="3">
+        <v>2</v>
+      </c>
+      <c r="B196" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="3">
+        <v>2</v>
+      </c>
+      <c r="B197" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="3">
+        <v>2</v>
+      </c>
+      <c r="B198" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="3">
+        <v>3</v>
+      </c>
+      <c r="B199" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="3">
+        <v>2</v>
+      </c>
+      <c r="B200" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="3">
+        <v>3</v>
+      </c>
+      <c r="B201" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="3">
+        <v>3</v>
+      </c>
+      <c r="B202" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="3">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="3">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="3">
+        <v>3</v>
+      </c>
+      <c r="B205" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="3">
+        <v>3</v>
+      </c>
+      <c r="B206" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="3">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="3">
+        <v>1</v>
+      </c>
+      <c r="B208" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="3">
+        <v>2</v>
+      </c>
+      <c r="B209" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="3">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="3">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="3">
+        <v>3</v>
+      </c>
+      <c r="B212" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="3">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="3">
+        <v>2</v>
+      </c>
+      <c r="B214" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="3">
+        <v>2</v>
+      </c>
+      <c r="B215" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="3">
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="3">
+        <v>2</v>
+      </c>
+      <c r="B217" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="3">
+        <v>2</v>
+      </c>
+      <c r="B218" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="3">
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="3">
+        <v>3</v>
+      </c>
+      <c r="B220" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="3">
+        <v>2</v>
+      </c>
+      <c r="B221" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="3">
+        <v>2</v>
+      </c>
+      <c r="B222" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="3">
+        <v>3</v>
+      </c>
+      <c r="B223" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="3">
+        <v>1</v>
+      </c>
+      <c r="B224" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="3">
+        <v>2</v>
+      </c>
+      <c r="B225" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="3">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="3">
+        <v>3</v>
+      </c>
+      <c r="B227" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="3">
+        <v>3</v>
+      </c>
+      <c r="B228" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="3">
+        <v>3</v>
+      </c>
+      <c r="B229" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="3">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="3">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="3">
+        <v>3</v>
+      </c>
+      <c r="B232" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="3">
+        <v>3</v>
+      </c>
+      <c r="B233" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="3">
+        <v>2</v>
+      </c>
+      <c r="B234" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="3">
+        <v>2</v>
+      </c>
+      <c r="B235" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="3">
+        <v>1</v>
+      </c>
+      <c r="B236" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="3">
+        <v>2</v>
+      </c>
+      <c r="B237" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="3">
+        <v>3</v>
+      </c>
+      <c r="B238" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="3">
+        <v>1</v>
+      </c>
+      <c r="B239" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="3">
+        <v>2</v>
+      </c>
+      <c r="B240" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="3">
+        <v>2</v>
+      </c>
+      <c r="B241" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="3">
+        <v>2</v>
+      </c>
+      <c r="B242" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="3">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="3">
+        <v>3</v>
+      </c>
+      <c r="B244" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="3">
+        <v>1</v>
+      </c>
+      <c r="B245" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="3">
+        <v>3</v>
+      </c>
+      <c r="B246" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="3">
+        <v>2</v>
+      </c>
+      <c r="B247" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="3">
+        <v>3</v>
+      </c>
+      <c r="B248" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="3">
+        <v>2</v>
+      </c>
+      <c r="B249" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="3">
+        <v>3</v>
+      </c>
+      <c r="B250" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="3">
+        <v>2</v>
+      </c>
+      <c r="B251" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="3">
+        <v>2</v>
+      </c>
+      <c r="B252" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="3">
+        <v>2</v>
+      </c>
+      <c r="B253" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="3">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="3">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="3">
+        <v>2</v>
+      </c>
+      <c r="B256" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="3">
+        <v>3</v>
+      </c>
+      <c r="B257" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="3">
+        <v>3</v>
+      </c>
+      <c r="B258" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="3">
+        <v>3</v>
+      </c>
+      <c r="B259" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="3">
+        <v>3</v>
+      </c>
+      <c r="B260" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="3">
+        <v>3</v>
+      </c>
+      <c r="B261" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="3">
+        <v>3</v>
+      </c>
+      <c r="B262" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="3">
+        <v>2</v>
+      </c>
+      <c r="B263" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="3">
+        <v>3</v>
+      </c>
+      <c r="B264" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="3">
+        <v>3</v>
+      </c>
+      <c r="B265" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="3">
+        <v>2</v>
+      </c>
+      <c r="B266" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="3">
+        <v>1</v>
+      </c>
+      <c r="B267" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="3">
+        <v>2</v>
+      </c>
+      <c r="B268" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="3">
+        <v>3</v>
+      </c>
+      <c r="B269" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="3">
+        <v>2</v>
+      </c>
+      <c r="B270" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="3">
+        <v>3</v>
+      </c>
+      <c r="B271" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="3">
+        <v>2</v>
+      </c>
+      <c r="B272" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="3">
+        <v>3</v>
+      </c>
+      <c r="B273" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="3">
+        <v>3</v>
+      </c>
+      <c r="B274" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="3">
+        <v>3</v>
+      </c>
+      <c r="B275" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="3">
+        <v>1</v>
+      </c>
+      <c r="B276" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="3">
+        <v>3</v>
+      </c>
+      <c r="B277" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="3">
+        <v>3</v>
+      </c>
+      <c r="B278" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="3">
+        <v>2</v>
+      </c>
+      <c r="B279" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="3">
+        <v>3</v>
+      </c>
+      <c r="B280" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="3">
+        <v>2</v>
+      </c>
+      <c r="B281" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="3">
+        <v>2</v>
+      </c>
+      <c r="B282" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="3">
+        <v>2</v>
+      </c>
+      <c r="B283" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="3">
+        <v>1</v>
+      </c>
+      <c r="B284" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="3">
+        <v>1</v>
+      </c>
+      <c r="B285" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="3">
+        <v>2</v>
+      </c>
+      <c r="B286" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="3">
+        <v>2</v>
+      </c>
+      <c r="B287" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="3">
+        <v>3</v>
+      </c>
+      <c r="B288" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="3">
+        <v>3</v>
+      </c>
+      <c r="B289" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="3">
+        <v>3</v>
+      </c>
+      <c r="B290" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="3">
+        <v>2</v>
+      </c>
+      <c r="B291" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="3">
+        <v>2</v>
+      </c>
+      <c r="B292" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="3">
+        <v>3</v>
+      </c>
+      <c r="B293" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="3">
+        <v>2</v>
+      </c>
+      <c r="B294" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="3">
+        <v>2</v>
+      </c>
+      <c r="B295" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="3">
+        <v>2</v>
+      </c>
+      <c r="B296" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="3">
+        <v>3</v>
+      </c>
+      <c r="B297" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="3">
+        <v>2</v>
+      </c>
+      <c r="B298" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="3">
+        <v>3</v>
+      </c>
+      <c r="B299" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="3">
+        <v>3</v>
+      </c>
+      <c r="B300" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="3">
+        <v>2</v>
+      </c>
+      <c r="B301" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="3">
+        <v>1</v>
+      </c>
+      <c r="B302" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="3">
+        <v>2</v>
+      </c>
+      <c r="B303" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="3">
+        <v>2</v>
+      </c>
+      <c r="B304" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="3">
+        <v>2</v>
+      </c>
+      <c r="B305" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="3">
+        <v>2</v>
+      </c>
+      <c r="B306" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="3">
+        <v>1</v>
+      </c>
+      <c r="B307" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="3">
+        <v>2</v>
+      </c>
+      <c r="B308" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="3">
+        <v>2</v>
+      </c>
+      <c r="B309" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="3">
+        <v>2</v>
+      </c>
+      <c r="B310" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="3">
+        <v>2</v>
+      </c>
+      <c r="B311" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="3">
+        <v>2</v>
+      </c>
+      <c r="B312" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="3">
+        <v>2</v>
+      </c>
+      <c r="B313" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="3">
+        <v>2</v>
+      </c>
+      <c r="B314" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="3">
+        <v>3</v>
+      </c>
+      <c r="B315" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="3">
+        <v>2</v>
+      </c>
+      <c r="B316" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="3">
+        <v>2</v>
+      </c>
+      <c r="B317" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="3">
+        <v>3</v>
+      </c>
+      <c r="B318" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="3">
+        <v>1</v>
+      </c>
+      <c r="B319" t="s">
         <v>718</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/mibr.xlsx
+++ b/mibr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Insper\2º Semestre\Cdados2\p1_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Miada\Documents\GitHub\p1_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ABA448-8D4B-4F21-AE0B-C6D87E52E928}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6348A09-CEFE-4200-8809-19B28A399652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2361,7 +2361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2371,6 +2371,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2413,7 +2421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2422,6 +2430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2762,16 +2771,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B294" sqref="B294"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="A398" activeCellId="1" sqref="B401 A398"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="187" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2779,7 +2788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2795,7 +2804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2803,7 +2812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2811,7 +2820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2827,7 +2836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2835,7 +2844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2843,7 +2852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2859,7 +2868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2875,7 +2884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2891,7 +2900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2899,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2923,7 +2932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2931,7 +2940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2939,7 +2948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2947,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2955,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2963,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2971,7 +2980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2979,7 +2988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2987,7 +2996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2995,7 +3004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -3003,7 +3012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -3011,7 +3020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -3019,7 +3028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -3027,7 +3036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -3035,7 +3044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -3051,7 +3060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -3059,7 +3068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -3067,7 +3076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -3075,7 +3084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -3083,7 +3092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -3091,7 +3100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -3099,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -3107,7 +3116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -3123,7 +3132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3131,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3139,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -3147,7 +3156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -3155,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -3163,7 +3172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3171,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -3179,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -3187,7 +3196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -3195,7 +3204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -3203,7 +3212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -3211,7 +3220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -3219,7 +3228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -3227,7 +3236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -3235,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -3243,7 +3252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -3251,7 +3260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -3259,7 +3268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -3267,7 +3276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -3275,7 +3284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -3283,7 +3292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -3291,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -3299,7 +3308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -3307,7 +3316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -3315,7 +3324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -3331,7 +3340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -3339,7 +3348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -3347,7 +3356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -3363,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -3371,7 +3380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -3395,7 +3404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -3403,7 +3412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -3411,7 +3420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -3419,7 +3428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -3427,7 +3436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -3435,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -3443,7 +3452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -3451,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -3459,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -3467,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -3475,7 +3484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -3483,7 +3492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -3491,7 +3500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -3499,7 +3508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -3507,7 +3516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -3515,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -3523,7 +3532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -3531,7 +3540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -3539,7 +3548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -3547,7 +3556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -3571,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -3579,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -3587,7 +3596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -3595,7 +3604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -3603,7 +3612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -3619,7 +3628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -3627,7 +3636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -3643,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -3651,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -3659,7 +3668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -3667,7 +3676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -3675,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -3683,7 +3692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -3691,7 +3700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -3699,7 +3708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -3707,7 +3716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -3723,7 +3732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -3731,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3739,7 +3748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -3747,7 +3756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -3755,7 +3764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -3763,7 +3772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -3779,7 +3788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -3787,7 +3796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -3795,7 +3804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -3803,7 +3812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -3811,7 +3820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -3819,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -3827,7 +3836,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -3835,7 +3844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -3843,7 +3852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -3851,7 +3860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -3859,7 +3868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -3867,7 +3876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -3875,7 +3884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -3883,7 +3892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -3891,7 +3900,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -3899,7 +3908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -3907,7 +3916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -3915,7 +3924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -3923,7 +3932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -3931,7 +3940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -3939,7 +3948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -3947,7 +3956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -3955,7 +3964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -3963,7 +3972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -3971,7 +3980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -3979,7 +3988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -3987,7 +3996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -3995,7 +4004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -4003,7 +4012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -4011,7 +4020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -4019,7 +4028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -4027,7 +4036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -4035,7 +4044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -4043,7 +4052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -4051,7 +4060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -4059,7 +4068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -4067,7 +4076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -4075,7 +4084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -4083,7 +4092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -4091,7 +4100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -4099,7 +4108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4107,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -4115,7 +4124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -4123,7 +4132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -4131,7 +4140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -4139,7 +4148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4147,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -4155,7 +4164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -4163,7 +4172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -4171,7 +4180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -4179,7 +4188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -4195,7 +4204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -4203,7 +4212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -4211,7 +4220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -4219,7 +4228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -4227,7 +4236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -4235,7 +4244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -4243,7 +4252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -4251,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <f>B443</f>
         <v>0</v>
@@ -4260,7 +4269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -4268,7 +4277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -4276,7 +4285,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -4284,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -4292,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -4300,7 +4309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -4308,7 +4317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -4316,7 +4325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -4324,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -4332,7 +4341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -4340,7 +4349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -4348,7 +4357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -4356,7 +4365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -4364,7 +4373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -4372,7 +4381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -4380,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -4388,7 +4397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -4396,7 +4405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -4404,7 +4413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -4420,7 +4429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -4428,7 +4437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -4444,7 +4453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -4452,7 +4461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -4460,7 +4469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -4468,7 +4477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -4476,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -4484,7 +4493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4492,7 +4501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -4500,7 +4509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -4508,7 +4517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -4516,7 +4525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -4524,7 +4533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -4532,7 +4541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -4540,7 +4549,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -4548,7 +4557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -4556,7 +4565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -4564,7 +4573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -4572,7 +4581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -4580,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -4588,7 +4597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -4604,7 +4613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -4612,7 +4621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -4620,7 +4629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -4628,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -4636,7 +4645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -4644,7 +4653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -4652,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -4660,7 +4669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -4668,7 +4677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -4676,7 +4685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -4684,7 +4693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -4692,7 +4701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -4700,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -4708,7 +4717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -4716,7 +4725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -4724,7 +4733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -4732,7 +4741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -4740,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -4748,7 +4757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -4756,7 +4765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -4764,7 +4773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -4772,7 +4781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -4780,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -4788,7 +4797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -4796,7 +4805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -4804,7 +4813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -4812,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -4820,7 +4829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -4828,7 +4837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -4836,7 +4845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -4844,7 +4853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -4852,7 +4861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -4860,7 +4869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -4868,7 +4877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -4876,7 +4885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -4884,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -4892,7 +4901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -4900,7 +4909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -4908,7 +4917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -4916,7 +4925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -4924,7 +4933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -4932,7 +4941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -4940,7 +4949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -4948,7 +4957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -4956,7 +4965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -4964,7 +4973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -4972,7 +4981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -4980,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -4988,7 +4997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -4996,7 +5005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -5004,7 +5013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -5012,7 +5021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -5020,7 +5029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -5028,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -5036,7 +5045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -5044,7 +5053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -5052,7 +5061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -5060,7 +5069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -5068,7 +5077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -5076,7 +5085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -5084,7 +5093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -5092,7 +5101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -5100,7 +5109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -5108,7 +5117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -5116,548 +5125,873 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B307">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B311">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B316">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B317">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B321">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B336">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B340">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B362">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B363">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B375">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B383">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B388">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B391">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B393">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B396">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B397">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>399</v>
       </c>
+      <c r="B401" s="4">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5665,16 +5999,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
+    <sheetView topLeftCell="A273" workbookViewId="0">
       <selection activeCell="H303" sqref="H303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.90625" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>719</v>
       </c>
@@ -5682,7 +6016,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5690,7 +6024,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -5698,7 +6032,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5706,7 +6040,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -5714,7 +6048,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5722,7 +6056,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -5730,7 +6064,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -5738,7 +6072,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -5746,7 +6080,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -5754,7 +6088,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -5762,7 +6096,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -5770,7 +6104,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -5778,7 +6112,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -5786,7 +6120,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -5794,7 +6128,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -5802,7 +6136,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -5810,7 +6144,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -5818,7 +6152,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -5826,7 +6160,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -5834,7 +6168,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -5842,7 +6176,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -5850,7 +6184,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -5858,7 +6192,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -5866,7 +6200,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -5874,7 +6208,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -5882,7 +6216,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -5890,7 +6224,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -5898,7 +6232,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -5906,7 +6240,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -5914,7 +6248,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>3</v>
       </c>
@@ -5922,7 +6256,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>3</v>
       </c>
@@ -5930,7 +6264,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>3</v>
       </c>
@@ -5938,7 +6272,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -5946,7 +6280,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>3</v>
       </c>
@@ -5954,7 +6288,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -5962,7 +6296,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -5970,7 +6304,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -5978,7 +6312,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>3</v>
       </c>
@@ -5986,7 +6320,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>3</v>
       </c>
@@ -5994,7 +6328,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -6002,7 +6336,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -6010,7 +6344,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -6018,7 +6352,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -6026,7 +6360,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>3</v>
       </c>
@@ -6034,7 +6368,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -6042,7 +6376,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -6050,7 +6384,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -6058,7 +6392,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -6066,7 +6400,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>2</v>
       </c>
@@ -6074,7 +6408,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>2</v>
       </c>
@@ -6082,7 +6416,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>2</v>
       </c>
@@ -6090,7 +6424,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>2</v>
       </c>
@@ -6098,7 +6432,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -6106,7 +6440,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>2</v>
       </c>
@@ -6114,7 +6448,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -6122,7 +6456,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -6130,7 +6464,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -6138,7 +6472,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>2</v>
       </c>
@@ -6146,7 +6480,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -6154,7 +6488,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -6162,7 +6496,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>2</v>
       </c>
@@ -6170,7 +6504,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>2</v>
       </c>
@@ -6178,7 +6512,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -6186,7 +6520,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>3</v>
       </c>
@@ -6194,7 +6528,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>1</v>
       </c>
@@ -6202,7 +6536,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>2</v>
       </c>
@@ -6210,7 +6544,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -6218,7 +6552,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -6226,7 +6560,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>3</v>
       </c>
@@ -6234,7 +6568,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>2</v>
       </c>
@@ -6242,7 +6576,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>2</v>
       </c>
@@ -6250,7 +6584,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>2</v>
       </c>
@@ -6258,7 +6592,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>1</v>
       </c>
@@ -6266,7 +6600,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>2</v>
       </c>
@@ -6274,7 +6608,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>2</v>
       </c>
@@ -6282,7 +6616,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>3</v>
       </c>
@@ -6290,7 +6624,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>2</v>
       </c>
@@ -6298,7 +6632,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -6306,7 +6640,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>3</v>
       </c>
@@ -6314,7 +6648,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>3</v>
       </c>
@@ -6322,7 +6656,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>3</v>
       </c>
@@ -6330,7 +6664,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -6338,7 +6672,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>2</v>
       </c>
@@ -6346,7 +6680,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>2</v>
       </c>
@@ -6354,7 +6688,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>3</v>
       </c>
@@ -6362,7 +6696,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>2</v>
       </c>
@@ -6370,7 +6704,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>3</v>
       </c>
@@ -6378,7 +6712,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>3</v>
       </c>
@@ -6386,7 +6720,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>2</v>
       </c>
@@ -6394,7 +6728,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>2</v>
       </c>
@@ -6402,7 +6736,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>2</v>
       </c>
@@ -6410,7 +6744,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>2</v>
       </c>
@@ -6418,7 +6752,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>3</v>
       </c>
@@ -6426,7 +6760,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>3</v>
       </c>
@@ -6434,7 +6768,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>3</v>
       </c>
@@ -6442,7 +6776,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>3</v>
       </c>
@@ -6450,7 +6784,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>2</v>
       </c>
@@ -6458,7 +6792,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>3</v>
       </c>
@@ -6466,7 +6800,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -6474,7 +6808,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>2</v>
       </c>
@@ -6482,7 +6816,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>3</v>
       </c>
@@ -6490,7 +6824,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>2</v>
       </c>
@@ -6498,7 +6832,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>3</v>
       </c>
@@ -6506,7 +6840,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>3</v>
       </c>
@@ -6514,7 +6848,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>1</v>
       </c>
@@ -6522,7 +6856,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>2</v>
       </c>
@@ -6530,7 +6864,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -6538,7 +6872,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -6546,7 +6880,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>3</v>
       </c>
@@ -6554,7 +6888,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>1</v>
       </c>
@@ -6562,7 +6896,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>3</v>
       </c>
@@ -6570,7 +6904,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>3</v>
       </c>
@@ -6578,7 +6912,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -6586,7 +6920,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>3</v>
       </c>
@@ -6594,7 +6928,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -6602,7 +6936,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>3</v>
       </c>
@@ -6610,7 +6944,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>2</v>
       </c>
@@ -6618,7 +6952,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>3</v>
       </c>
@@ -6626,7 +6960,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>2</v>
       </c>
@@ -6634,7 +6968,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>2</v>
       </c>
@@ -6642,7 +6976,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>2</v>
       </c>
@@ -6650,7 +6984,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>2</v>
       </c>
@@ -6658,7 +6992,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>2</v>
       </c>
@@ -6666,7 +7000,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>2</v>
       </c>
@@ -6674,7 +7008,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>2</v>
       </c>
@@ -6682,7 +7016,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>2</v>
       </c>
@@ -6690,7 +7024,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>2</v>
       </c>
@@ -6698,7 +7032,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>1</v>
       </c>
@@ -6706,7 +7040,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>2</v>
       </c>
@@ -6714,7 +7048,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>3</v>
       </c>
@@ -6722,7 +7056,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>2</v>
       </c>
@@ -6730,7 +7064,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>2</v>
       </c>
@@ -6738,7 +7072,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>2</v>
       </c>
@@ -6746,7 +7080,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>3</v>
       </c>
@@ -6754,7 +7088,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>2</v>
       </c>
@@ -6762,7 +7096,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>1</v>
       </c>
@@ -6770,7 +7104,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>3</v>
       </c>
@@ -6778,7 +7112,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>3</v>
       </c>
@@ -6786,7 +7120,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>3</v>
       </c>
@@ -6794,7 +7128,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>2</v>
       </c>
@@ -6802,7 +7136,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>3</v>
       </c>
@@ -6810,7 +7144,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>2</v>
       </c>
@@ -6818,7 +7152,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>2</v>
       </c>
@@ -6826,7 +7160,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>2</v>
       </c>
@@ -6834,7 +7168,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>2</v>
       </c>
@@ -6842,7 +7176,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>3</v>
       </c>
@@ -6850,7 +7184,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>2</v>
       </c>
@@ -6858,7 +7192,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>3</v>
       </c>
@@ -6866,7 +7200,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>2</v>
       </c>
@@ -6874,7 +7208,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>2</v>
       </c>
@@ -6882,7 +7216,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>2</v>
       </c>
@@ -6890,7 +7224,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>3</v>
       </c>
@@ -6898,7 +7232,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>2</v>
       </c>
@@ -6906,7 +7240,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>3</v>
       </c>
@@ -6914,7 +7248,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>3</v>
       </c>
@@ -6922,7 +7256,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>3</v>
       </c>
@@ -6930,7 +7264,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>2</v>
       </c>
@@ -6938,7 +7272,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>2</v>
       </c>
@@ -6946,7 +7280,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>2</v>
       </c>
@@ -6954,7 +7288,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>3</v>
       </c>
@@ -6962,7 +7296,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>2</v>
       </c>
@@ -6970,7 +7304,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>3</v>
       </c>
@@ -6978,7 +7312,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>2</v>
       </c>
@@ -6986,7 +7320,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>1</v>
       </c>
@@ -6994,7 +7328,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>3</v>
       </c>
@@ -7002,7 +7336,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>1</v>
       </c>
@@ -7010,7 +7344,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>2</v>
       </c>
@@ -7018,7 +7352,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>2</v>
       </c>
@@ -7026,7 +7360,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>2</v>
       </c>
@@ -7034,7 +7368,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>2</v>
       </c>
@@ -7042,7 +7376,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>3</v>
       </c>
@@ -7050,7 +7384,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>2</v>
       </c>
@@ -7058,7 +7392,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>2</v>
       </c>
@@ -7066,7 +7400,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>3</v>
       </c>
@@ -7074,7 +7408,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>2</v>
       </c>
@@ -7082,7 +7416,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>2</v>
       </c>
@@ -7090,7 +7424,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>3</v>
       </c>
@@ -7098,7 +7432,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>1</v>
       </c>
@@ -7106,7 +7440,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>2</v>
       </c>
@@ -7114,7 +7448,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>3</v>
       </c>
@@ -7122,7 +7456,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>2</v>
       </c>
@@ -7130,7 +7464,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>3</v>
       </c>
@@ -7138,7 +7472,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>3</v>
       </c>
@@ -7146,7 +7480,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>1</v>
       </c>
@@ -7154,7 +7488,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>3</v>
       </c>
@@ -7162,7 +7496,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>3</v>
       </c>
@@ -7170,7 +7504,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>2</v>
       </c>
@@ -7178,7 +7512,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>2</v>
       </c>
@@ -7186,7 +7520,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>1</v>
       </c>
@@ -7194,7 +7528,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>3</v>
       </c>
@@ -7202,7 +7536,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>3</v>
       </c>
@@ -7210,7 +7544,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>2</v>
       </c>
@@ -7218,7 +7552,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>1</v>
       </c>
@@ -7226,7 +7560,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>2</v>
       </c>
@@ -7234,7 +7568,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>2</v>
       </c>
@@ -7242,7 +7576,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>2</v>
       </c>
@@ -7250,7 +7584,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>2</v>
       </c>
@@ -7258,7 +7592,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>3</v>
       </c>
@@ -7266,7 +7600,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>2</v>
       </c>
@@ -7274,7 +7608,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>3</v>
       </c>
@@ -7282,7 +7616,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>3</v>
       </c>
@@ -7290,7 +7624,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>3</v>
       </c>
@@ -7298,7 +7632,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>2</v>
       </c>
@@ -7306,7 +7640,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>3</v>
       </c>
@@ -7314,7 +7648,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>3</v>
       </c>
@@ -7322,7 +7656,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>2</v>
       </c>
@@ -7330,7 +7664,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>1</v>
       </c>
@@ -7338,7 +7672,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>2</v>
       </c>
@@ -7346,7 +7680,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>2</v>
       </c>
@@ -7354,7 +7688,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>2</v>
       </c>
@@ -7362,7 +7696,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>3</v>
       </c>
@@ -7370,7 +7704,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>2</v>
       </c>
@@ -7378,7 +7712,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>2</v>
       </c>
@@ -7386,7 +7720,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>2</v>
       </c>
@@ -7394,7 +7728,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>2</v>
       </c>
@@ -7402,7 +7736,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>2</v>
       </c>
@@ -7410,7 +7744,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>2</v>
       </c>
@@ -7418,7 +7752,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>2</v>
       </c>
@@ -7426,7 +7760,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>3</v>
       </c>
@@ -7434,7 +7768,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>2</v>
       </c>
@@ -7442,7 +7776,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>2</v>
       </c>
@@ -7450,7 +7784,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>3</v>
       </c>
@@ -7458,7 +7792,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>1</v>
       </c>
@@ -7466,7 +7800,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>2</v>
       </c>
@@ -7474,7 +7808,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>2</v>
       </c>
@@ -7482,7 +7816,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>3</v>
       </c>
@@ -7490,7 +7824,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>3</v>
       </c>
@@ -7498,7 +7832,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>3</v>
       </c>
@@ -7506,7 +7840,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>2</v>
       </c>
@@ -7514,7 +7848,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>2</v>
       </c>
@@ -7522,7 +7856,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>3</v>
       </c>
@@ -7530,7 +7864,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>3</v>
       </c>
@@ -7538,7 +7872,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>2</v>
       </c>
@@ -7546,7 +7880,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>2</v>
       </c>
@@ -7554,7 +7888,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>1</v>
       </c>
@@ -7562,7 +7896,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>2</v>
       </c>
@@ -7570,7 +7904,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>3</v>
       </c>
@@ -7578,7 +7912,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>1</v>
       </c>
@@ -7586,7 +7920,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>2</v>
       </c>
@@ -7594,7 +7928,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>2</v>
       </c>
@@ -7602,7 +7936,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>2</v>
       </c>
@@ -7610,7 +7944,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>3</v>
       </c>
@@ -7618,7 +7952,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>3</v>
       </c>
@@ -7626,7 +7960,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>1</v>
       </c>
@@ -7634,7 +7968,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>3</v>
       </c>
@@ -7642,7 +7976,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>2</v>
       </c>
@@ -7650,7 +7984,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>3</v>
       </c>
@@ -7658,7 +7992,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>2</v>
       </c>
@@ -7666,7 +8000,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>3</v>
       </c>
@@ -7674,7 +8008,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>2</v>
       </c>
@@ -7682,7 +8016,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>2</v>
       </c>
@@ -7690,7 +8024,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>2</v>
       </c>
@@ -7698,7 +8032,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>2</v>
       </c>
@@ -7706,7 +8040,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>1</v>
       </c>
@@ -7714,7 +8048,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>2</v>
       </c>
@@ -7722,7 +8056,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>3</v>
       </c>
@@ -7730,7 +8064,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>3</v>
       </c>
@@ -7738,7 +8072,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>3</v>
       </c>
@@ -7746,7 +8080,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>3</v>
       </c>
@@ -7754,7 +8088,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>3</v>
       </c>
@@ -7762,7 +8096,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>3</v>
       </c>
@@ -7770,7 +8104,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>2</v>
       </c>
@@ -7778,7 +8112,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>3</v>
       </c>
@@ -7786,7 +8120,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>3</v>
       </c>
@@ -7794,7 +8128,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>2</v>
       </c>
@@ -7802,7 +8136,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>1</v>
       </c>
@@ -7810,7 +8144,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>2</v>
       </c>
@@ -7818,7 +8152,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>3</v>
       </c>
@@ -7826,7 +8160,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>2</v>
       </c>
@@ -7834,7 +8168,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>3</v>
       </c>
@@ -7842,7 +8176,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>2</v>
       </c>
@@ -7850,7 +8184,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>3</v>
       </c>
@@ -7858,7 +8192,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>3</v>
       </c>
@@ -7866,7 +8200,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>3</v>
       </c>
@@ -7874,7 +8208,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>1</v>
       </c>
@@ -7882,7 +8216,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>3</v>
       </c>
@@ -7890,7 +8224,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>3</v>
       </c>
@@ -7898,7 +8232,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>2</v>
       </c>
@@ -7906,7 +8240,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>3</v>
       </c>
@@ -7914,7 +8248,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>2</v>
       </c>
@@ -7922,7 +8256,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>2</v>
       </c>
@@ -7930,7 +8264,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>2</v>
       </c>
@@ -7938,7 +8272,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>1</v>
       </c>
@@ -7946,7 +8280,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>1</v>
       </c>
@@ -7954,7 +8288,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>2</v>
       </c>
@@ -7962,7 +8296,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>2</v>
       </c>
@@ -7970,7 +8304,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>3</v>
       </c>
@@ -7978,7 +8312,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>3</v>
       </c>
@@ -7986,7 +8320,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>3</v>
       </c>
@@ -7994,7 +8328,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>2</v>
       </c>
@@ -8002,7 +8336,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>2</v>
       </c>
@@ -8010,7 +8344,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>3</v>
       </c>
@@ -8018,7 +8352,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>2</v>
       </c>
@@ -8026,7 +8360,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>2</v>
       </c>
@@ -8034,7 +8368,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>2</v>
       </c>
@@ -8042,7 +8376,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>3</v>
       </c>
@@ -8050,7 +8384,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>2</v>
       </c>
@@ -8058,7 +8392,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>3</v>
       </c>
@@ -8066,7 +8400,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>3</v>
       </c>
@@ -8074,7 +8408,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>2</v>
       </c>
@@ -8082,7 +8416,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>1</v>
       </c>
@@ -8090,7 +8424,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>2</v>
       </c>
@@ -8098,7 +8432,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>2</v>
       </c>
@@ -8106,7 +8440,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>2</v>
       </c>
@@ -8114,7 +8448,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>2</v>
       </c>
@@ -8122,7 +8456,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>1</v>
       </c>
@@ -8130,7 +8464,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>2</v>
       </c>
@@ -8138,7 +8472,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>2</v>
       </c>
@@ -8146,7 +8480,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>2</v>
       </c>
@@ -8154,7 +8488,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>2</v>
       </c>
@@ -8162,7 +8496,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>2</v>
       </c>
@@ -8170,7 +8504,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>2</v>
       </c>
@@ -8178,7 +8512,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>2</v>
       </c>
@@ -8186,7 +8520,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>3</v>
       </c>
@@ -8194,7 +8528,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>2</v>
       </c>
@@ -8202,7 +8536,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>2</v>
       </c>
@@ -8210,7 +8544,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>3</v>
       </c>
@@ -8218,7 +8552,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>1</v>
       </c>

--- a/mibr.xlsx
+++ b/mibr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vitor Miada\Documents\GitHub\p1_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Insper\2º Semestre\Cdados2\p1_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6348A09-CEFE-4200-8809-19B28A399652}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1994F1E-F96D-480E-BF28-DE8D9E341B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -2771,3222 +2771,3219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="A398" activeCellId="1" sqref="B401 A398"/>
+    <sheetView tabSelected="1" topLeftCell="B379" workbookViewId="0">
+      <selection activeCell="B386" sqref="B386"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="187" customWidth="1"/>
+    <col min="2" max="2" width="187" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
         <v>47</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="B53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
         <v>54</v>
       </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
         <v>55</v>
       </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57" t="s">
         <v>56</v>
       </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
         <v>58</v>
       </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
         <v>59</v>
       </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
         <v>61</v>
       </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2</v>
+      </c>
+      <c r="B63" t="s">
         <v>62</v>
       </c>
-      <c r="B63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
         <v>63</v>
       </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65" t="s">
         <v>64</v>
       </c>
-      <c r="B65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66" t="s">
         <v>65</v>
       </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
         <v>67</v>
       </c>
-      <c r="B68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69" t="s">
         <v>68</v>
       </c>
-      <c r="B69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70" t="s">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72" t="s">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74" t="s">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75" t="s">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76" t="s">
         <v>75</v>
       </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" t="s">
         <v>76</v>
       </c>
-      <c r="B77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79" t="s">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81" t="s">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2</v>
+      </c>
+      <c r="B82" t="s">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" t="s">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85" t="s">
         <v>84</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2</v>
+      </c>
+      <c r="B86" t="s">
         <v>85</v>
       </c>
-      <c r="B86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87" t="s">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2</v>
+      </c>
+      <c r="B88" t="s">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2</v>
+      </c>
+      <c r="B92" t="s">
         <v>91</v>
       </c>
-      <c r="B92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2</v>
+      </c>
+      <c r="B93" t="s">
         <v>92</v>
       </c>
-      <c r="B93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
         <v>93</v>
       </c>
-      <c r="B94">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
         <v>94</v>
       </c>
-      <c r="B95">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>2</v>
+      </c>
+      <c r="B96" t="s">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
         <v>96</v>
       </c>
-      <c r="B97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
         <v>97</v>
       </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99" t="s">
         <v>98</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2</v>
+      </c>
+      <c r="B100" t="s">
         <v>99</v>
       </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
         <v>101</v>
       </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
         <v>102</v>
       </c>
-      <c r="B103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
         <v>103</v>
       </c>
-      <c r="B104">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105" t="s">
         <v>104</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
         <v>105</v>
       </c>
-      <c r="B106">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
         <v>106</v>
       </c>
-      <c r="B107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2</v>
+      </c>
+      <c r="B108" t="s">
         <v>107</v>
       </c>
-      <c r="B108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109" t="s">
         <v>108</v>
       </c>
-      <c r="B109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>1</v>
+      </c>
+      <c r="B110" t="s">
         <v>109</v>
       </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2</v>
+      </c>
+      <c r="B111" t="s">
         <v>110</v>
       </c>
-      <c r="B111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
         <v>111</v>
       </c>
-      <c r="B112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="s">
         <v>112</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
         <v>113</v>
       </c>
-      <c r="B114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2</v>
+      </c>
+      <c r="B115" t="s">
         <v>114</v>
       </c>
-      <c r="B115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
         <v>115</v>
       </c>
-      <c r="B116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
         <v>116</v>
       </c>
-      <c r="B117">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118" t="s">
         <v>117</v>
       </c>
-      <c r="B118">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
         <v>118</v>
       </c>
-      <c r="B119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>1</v>
+      </c>
+      <c r="B120" t="s">
         <v>119</v>
       </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
         <v>120</v>
       </c>
-      <c r="B121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>3</v>
+      </c>
+      <c r="B122" t="s">
         <v>121</v>
       </c>
-      <c r="B122">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
         <v>122</v>
       </c>
-      <c r="B123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
         <v>123</v>
       </c>
-      <c r="B124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
         <v>124</v>
       </c>
-      <c r="B125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
         <v>125</v>
       </c>
-      <c r="B126">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2</v>
+      </c>
+      <c r="B127" t="s">
         <v>126</v>
       </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2</v>
+      </c>
+      <c r="B128" t="s">
         <v>127</v>
       </c>
-      <c r="B128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>3</v>
+      </c>
+      <c r="B129" t="s">
         <v>128</v>
       </c>
-      <c r="B129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130" t="s">
         <v>129</v>
       </c>
-      <c r="B130">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>2</v>
+      </c>
+      <c r="B131" t="s">
         <v>130</v>
       </c>
-      <c r="B131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2</v>
+      </c>
+      <c r="B132" t="s">
         <v>131</v>
       </c>
-      <c r="B132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
         <v>132</v>
       </c>
-      <c r="B133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>3</v>
+      </c>
+      <c r="B134" t="s">
         <v>133</v>
       </c>
-      <c r="B134">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>2</v>
+      </c>
+      <c r="B135" t="s">
         <v>134</v>
       </c>
-      <c r="B135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>2</v>
+      </c>
+      <c r="B136" t="s">
         <v>135</v>
       </c>
-      <c r="B136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>3</v>
+      </c>
+      <c r="B137" t="s">
         <v>136</v>
       </c>
-      <c r="B137">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
         <v>137</v>
       </c>
-      <c r="B138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>3</v>
+      </c>
+      <c r="B139" t="s">
         <v>138</v>
       </c>
-      <c r="B139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>3</v>
+      </c>
+      <c r="B140" t="s">
         <v>139</v>
       </c>
-      <c r="B140">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>3</v>
+      </c>
+      <c r="B141" t="s">
         <v>140</v>
       </c>
-      <c r="B141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
         <v>141</v>
       </c>
-      <c r="B142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>2</v>
+      </c>
+      <c r="B143" t="s">
         <v>142</v>
       </c>
-      <c r="B143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
         <v>143</v>
       </c>
-      <c r="B144">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" t="s">
         <v>144</v>
       </c>
-      <c r="B145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
         <v>145</v>
       </c>
-      <c r="B146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2</v>
+      </c>
+      <c r="B147" t="s">
         <v>146</v>
       </c>
-      <c r="B147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>3</v>
+      </c>
+      <c r="B148" t="s">
         <v>147</v>
       </c>
-      <c r="B148">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2</v>
+      </c>
+      <c r="B149" t="s">
         <v>148</v>
       </c>
-      <c r="B149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2</v>
+      </c>
+      <c r="B150" t="s">
         <v>149</v>
       </c>
-      <c r="B150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" t="s">
         <v>150</v>
       </c>
-      <c r="B151">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
         <v>151</v>
       </c>
-      <c r="B152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
         <v>152</v>
       </c>
-      <c r="B153">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>3</v>
+      </c>
+      <c r="B154" t="s">
         <v>153</v>
       </c>
-      <c r="B154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2</v>
+      </c>
+      <c r="B155" t="s">
         <v>154</v>
       </c>
-      <c r="B155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156" t="s">
         <v>155</v>
       </c>
-      <c r="B156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>2</v>
+      </c>
+      <c r="B157" t="s">
         <v>156</v>
       </c>
-      <c r="B157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>2</v>
+      </c>
+      <c r="B158" t="s">
         <v>157</v>
       </c>
-      <c r="B158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>3</v>
+      </c>
+      <c r="B159" t="s">
         <v>158</v>
       </c>
-      <c r="B159">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160" t="s">
         <v>159</v>
       </c>
-      <c r="B160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>2</v>
+      </c>
+      <c r="B161" t="s">
         <v>160</v>
       </c>
-      <c r="B161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2</v>
+      </c>
+      <c r="B162" t="s">
         <v>161</v>
       </c>
-      <c r="B162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163" t="s">
         <v>162</v>
       </c>
-      <c r="B163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2</v>
+      </c>
+      <c r="B164" t="s">
         <v>163</v>
       </c>
-      <c r="B164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>3</v>
+      </c>
+      <c r="B165" t="s">
         <v>164</v>
       </c>
-      <c r="B165">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>2</v>
+      </c>
+      <c r="B166" t="s">
         <v>165</v>
       </c>
-      <c r="B166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
         <v>166</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
         <v>167</v>
       </c>
-      <c r="B168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>2</v>
+      </c>
+      <c r="B169" t="s">
         <v>168</v>
       </c>
-      <c r="B169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>3</v>
+      </c>
+      <c r="B170" t="s">
         <v>169</v>
       </c>
-      <c r="B170">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171" t="s">
         <v>170</v>
       </c>
-      <c r="B171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172" t="s">
         <v>171</v>
       </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>2</v>
+      </c>
+      <c r="B173" t="s">
         <v>172</v>
       </c>
-      <c r="B173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
         <v>173</v>
       </c>
-      <c r="B174">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>2</v>
+      </c>
+      <c r="B175" t="s">
         <v>174</v>
       </c>
-      <c r="B175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>2</v>
+      </c>
+      <c r="B176" t="s">
         <v>175</v>
       </c>
-      <c r="B176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>3</v>
+      </c>
+      <c r="B177" t="s">
         <v>176</v>
       </c>
-      <c r="B177">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
         <v>177</v>
       </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>3</v>
+      </c>
+      <c r="B179" t="s">
         <v>178</v>
       </c>
-      <c r="B179">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>2</v>
+      </c>
+      <c r="B180" t="s">
         <v>179</v>
       </c>
-      <c r="B180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>1</v>
+      </c>
+      <c r="B181" t="s">
         <v>180</v>
       </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>2</v>
+      </c>
+      <c r="B182" t="s">
         <v>181</v>
       </c>
-      <c r="B182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>2</v>
+      </c>
+      <c r="B183" t="s">
         <v>182</v>
       </c>
-      <c r="B183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>3</v>
+      </c>
+      <c r="B184" t="s">
         <v>183</v>
       </c>
-      <c r="B184">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>1</v>
+      </c>
+      <c r="B185" t="s">
         <v>184</v>
       </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186">
-        <f>B443</f>
+        <v>2</v>
+      </c>
+      <c r="B186">
+        <f>A443</f>
         <v>0</v>
       </c>
-      <c r="B186">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="B187" t="s">
         <v>185</v>
       </c>
-      <c r="B187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>2</v>
+      </c>
+      <c r="B188" t="s">
         <v>186</v>
       </c>
-      <c r="B188">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189" t="s">
         <v>187</v>
       </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>3</v>
+      </c>
+      <c r="B190" t="s">
         <v>188</v>
       </c>
-      <c r="B190">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>3</v>
+      </c>
+      <c r="B191" t="s">
         <v>189</v>
       </c>
-      <c r="B191">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
         <v>190</v>
       </c>
-      <c r="B192">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>2</v>
+      </c>
+      <c r="B193" t="s">
         <v>191</v>
       </c>
-      <c r="B193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>1</v>
+      </c>
+      <c r="B194" t="s">
         <v>192</v>
       </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>3</v>
+      </c>
+      <c r="B195" t="s">
         <v>193</v>
       </c>
-      <c r="B195">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>2</v>
+      </c>
+      <c r="B196" t="s">
         <v>194</v>
       </c>
-      <c r="B196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>1</v>
+      </c>
+      <c r="B197" t="s">
         <v>195</v>
       </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>1</v>
+      </c>
+      <c r="B198" t="s">
         <v>196</v>
       </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>2</v>
+      </c>
+      <c r="B199" t="s">
         <v>197</v>
       </c>
-      <c r="B199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>1</v>
+      </c>
+      <c r="B200" t="s">
         <v>198</v>
       </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>1</v>
+      </c>
+      <c r="B201" t="s">
         <v>199</v>
       </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>2</v>
+      </c>
+      <c r="B202" t="s">
         <v>200</v>
       </c>
-      <c r="B202">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>3</v>
+      </c>
+      <c r="B203" t="s">
         <v>201</v>
       </c>
-      <c r="B203">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
         <v>202</v>
       </c>
-      <c r="B204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>3</v>
+      </c>
+      <c r="B205" t="s">
         <v>203</v>
       </c>
-      <c r="B205">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>2</v>
+      </c>
+      <c r="B206" t="s">
         <v>204</v>
       </c>
-      <c r="B206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>3</v>
+      </c>
+      <c r="B207" t="s">
         <v>205</v>
       </c>
-      <c r="B207">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>2</v>
+      </c>
+      <c r="B208" t="s">
         <v>206</v>
       </c>
-      <c r="B208">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>3</v>
+      </c>
+      <c r="B209" t="s">
         <v>207</v>
       </c>
-      <c r="B209">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
         <v>208</v>
       </c>
-      <c r="B210">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>2</v>
+      </c>
+      <c r="B211" t="s">
         <v>209</v>
       </c>
-      <c r="B211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
         <v>210</v>
       </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>1</v>
+      </c>
+      <c r="B213" t="s">
         <v>211</v>
       </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>2</v>
+      </c>
+      <c r="B214" t="s">
         <v>212</v>
       </c>
-      <c r="B214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>1</v>
+      </c>
+      <c r="B215" t="s">
         <v>213</v>
       </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>2</v>
+      </c>
+      <c r="B216" t="s">
         <v>214</v>
       </c>
-      <c r="B216">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217" t="s">
         <v>215</v>
       </c>
-      <c r="B217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>2</v>
+      </c>
+      <c r="B218" t="s">
         <v>216</v>
       </c>
-      <c r="B218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>3</v>
+      </c>
+      <c r="B219" t="s">
         <v>217</v>
       </c>
-      <c r="B219">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220" t="s">
         <v>218</v>
       </c>
-      <c r="B220">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221" t="s">
         <v>219</v>
       </c>
-      <c r="B221">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>2</v>
+      </c>
+      <c r="B222" t="s">
         <v>220</v>
       </c>
-      <c r="B222">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223" t="s">
         <v>221</v>
       </c>
-      <c r="B223">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>2</v>
+      </c>
+      <c r="B224" t="s">
         <v>222</v>
       </c>
-      <c r="B224">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>1</v>
+      </c>
+      <c r="B225" t="s">
         <v>223</v>
       </c>
-      <c r="B225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>2</v>
+      </c>
+      <c r="B226" t="s">
         <v>224</v>
       </c>
-      <c r="B226">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227" t="s">
         <v>225</v>
       </c>
-      <c r="B227">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>2</v>
+      </c>
+      <c r="B228" t="s">
         <v>226</v>
       </c>
-      <c r="B228">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>2</v>
+      </c>
+      <c r="B229" t="s">
         <v>227</v>
       </c>
-      <c r="B229">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230" t="s">
         <v>228</v>
       </c>
-      <c r="B230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>2</v>
+      </c>
+      <c r="B231" t="s">
         <v>229</v>
       </c>
-      <c r="B231">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>1</v>
+      </c>
+      <c r="B232" t="s">
         <v>230</v>
       </c>
-      <c r="B232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>2</v>
+      </c>
+      <c r="B233" t="s">
         <v>231</v>
       </c>
-      <c r="B233">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234" t="s">
         <v>232</v>
       </c>
-      <c r="B234">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>2</v>
+      </c>
+      <c r="B235" t="s">
         <v>233</v>
       </c>
-      <c r="B235">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>2</v>
+      </c>
+      <c r="B236" t="s">
         <v>234</v>
       </c>
-      <c r="B236">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237" t="s">
         <v>235</v>
       </c>
-      <c r="B237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238">
+        <v>2</v>
+      </c>
+      <c r="B238" t="s">
         <v>236</v>
       </c>
-      <c r="B238">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239">
+        <v>2</v>
+      </c>
+      <c r="B239" t="s">
         <v>237</v>
       </c>
-      <c r="B239">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240">
+        <v>3</v>
+      </c>
+      <c r="B240" t="s">
         <v>238</v>
       </c>
-      <c r="B240">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241" t="s">
         <v>239</v>
       </c>
-      <c r="B241">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242">
+        <v>2</v>
+      </c>
+      <c r="B242" t="s">
         <v>240</v>
       </c>
-      <c r="B242">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
         <v>241</v>
       </c>
-      <c r="B243">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <v>2</v>
+      </c>
+      <c r="B244" t="s">
         <v>242</v>
       </c>
-      <c r="B244">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245">
+        <v>3</v>
+      </c>
+      <c r="B245" t="s">
         <v>243</v>
       </c>
-      <c r="B245">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246" t="s">
         <v>244</v>
       </c>
-      <c r="B246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247">
+        <v>2</v>
+      </c>
+      <c r="B247" t="s">
         <v>245</v>
       </c>
-      <c r="B247">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248">
+        <v>2</v>
+      </c>
+      <c r="B248" t="s">
         <v>246</v>
       </c>
-      <c r="B248">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249">
+        <v>2</v>
+      </c>
+      <c r="B249" t="s">
         <v>247</v>
       </c>
-      <c r="B249">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250">
+        <v>2</v>
+      </c>
+      <c r="B250" t="s">
         <v>248</v>
       </c>
-      <c r="B250">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <v>2</v>
+      </c>
+      <c r="B251" t="s">
         <v>249</v>
       </c>
-      <c r="B251">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252">
+        <v>2</v>
+      </c>
+      <c r="B252" t="s">
         <v>250</v>
       </c>
-      <c r="B252">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253">
+        <v>3</v>
+      </c>
+      <c r="B253" t="s">
         <v>251</v>
       </c>
-      <c r="B253">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s">
         <v>252</v>
       </c>
-      <c r="B254">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
         <v>253</v>
       </c>
-      <c r="B255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256">
+        <v>3</v>
+      </c>
+      <c r="B256" t="s">
         <v>254</v>
       </c>
-      <c r="B256">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257">
+        <v>3</v>
+      </c>
+      <c r="B257" t="s">
         <v>255</v>
       </c>
-      <c r="B257">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <v>2</v>
+      </c>
+      <c r="B258" t="s">
         <v>256</v>
       </c>
-      <c r="B258">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259">
+        <v>2</v>
+      </c>
+      <c r="B259" t="s">
         <v>257</v>
       </c>
-      <c r="B259">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260">
+        <v>2</v>
+      </c>
+      <c r="B260" t="s">
         <v>258</v>
       </c>
-      <c r="B260">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261">
+        <v>2</v>
+      </c>
+      <c r="B261" t="s">
         <v>259</v>
       </c>
-      <c r="B261">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262">
+        <v>2</v>
+      </c>
+      <c r="B262" t="s">
         <v>260</v>
       </c>
-      <c r="B262">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263">
+        <v>3</v>
+      </c>
+      <c r="B263" t="s">
         <v>261</v>
       </c>
-      <c r="B263">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264" t="s">
         <v>262</v>
       </c>
-      <c r="B264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <v>3</v>
+      </c>
+      <c r="B265" t="s">
         <v>263</v>
       </c>
-      <c r="B265">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266">
+        <v>3</v>
+      </c>
+      <c r="B266" t="s">
         <v>264</v>
       </c>
-      <c r="B266">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267">
+        <v>2</v>
+      </c>
+      <c r="B267" t="s">
         <v>265</v>
       </c>
-      <c r="B267">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268">
+        <v>2</v>
+      </c>
+      <c r="B268" t="s">
         <v>266</v>
       </c>
-      <c r="B268">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269">
+        <v>2</v>
+      </c>
+      <c r="B269" t="s">
         <v>267</v>
       </c>
-      <c r="B269">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270">
+        <v>2</v>
+      </c>
+      <c r="B270" t="s">
         <v>268</v>
       </c>
-      <c r="B270">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271">
+        <v>2</v>
+      </c>
+      <c r="B271" t="s">
         <v>269</v>
       </c>
-      <c r="B271">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272">
+        <v>3</v>
+      </c>
+      <c r="B272" t="s">
         <v>270</v>
       </c>
-      <c r="B272">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273">
+        <v>3</v>
+      </c>
+      <c r="B273" t="s">
         <v>271</v>
       </c>
-      <c r="B273">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274">
+        <v>2</v>
+      </c>
+      <c r="B274" t="s">
         <v>272</v>
       </c>
-      <c r="B274">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275" t="s">
         <v>273</v>
       </c>
-      <c r="B275">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276" t="s">
         <v>274</v>
       </c>
-      <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277">
+        <v>2</v>
+      </c>
+      <c r="B277" t="s">
         <v>275</v>
       </c>
-      <c r="B277">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278">
+        <v>3</v>
+      </c>
+      <c r="B278" t="s">
         <v>276</v>
       </c>
-      <c r="B278">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279">
+        <v>2</v>
+      </c>
+      <c r="B279" t="s">
         <v>277</v>
       </c>
-      <c r="B279">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280">
+        <v>2</v>
+      </c>
+      <c r="B280" t="s">
         <v>278</v>
       </c>
-      <c r="B280">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281">
+        <v>2</v>
+      </c>
+      <c r="B281" t="s">
         <v>279</v>
       </c>
-      <c r="B281">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282" t="s">
         <v>280</v>
       </c>
-      <c r="B282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283">
+        <v>2</v>
+      </c>
+      <c r="B283" t="s">
         <v>281</v>
       </c>
-      <c r="B283">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284">
+        <v>2</v>
+      </c>
+      <c r="B284" t="s">
         <v>282</v>
       </c>
-      <c r="B284">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285">
+        <v>3</v>
+      </c>
+      <c r="B285" t="s">
         <v>283</v>
       </c>
-      <c r="B285">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286">
+        <v>2</v>
+      </c>
+      <c r="B286" t="s">
         <v>284</v>
       </c>
-      <c r="B286">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287">
+        <v>2</v>
+      </c>
+      <c r="B287" t="s">
         <v>285</v>
       </c>
-      <c r="B287">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288">
+        <v>3</v>
+      </c>
+      <c r="B288" t="s">
         <v>286</v>
       </c>
-      <c r="B288">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289">
+        <v>3</v>
+      </c>
+      <c r="B289" t="s">
         <v>287</v>
       </c>
-      <c r="B289">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290">
+        <v>2</v>
+      </c>
+      <c r="B290" t="s">
         <v>288</v>
       </c>
-      <c r="B290">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291">
+        <v>3</v>
+      </c>
+      <c r="B291" t="s">
         <v>289</v>
       </c>
-      <c r="B291">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292">
+        <v>3</v>
+      </c>
+      <c r="B292" t="s">
         <v>290</v>
       </c>
-      <c r="B292">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293">
+        <v>2</v>
+      </c>
+      <c r="B293" t="s">
         <v>291</v>
       </c>
-      <c r="B293">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294">
+        <v>2</v>
+      </c>
+      <c r="B294" t="s">
         <v>292</v>
       </c>
-      <c r="B294">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295">
+        <v>3</v>
+      </c>
+      <c r="B295" t="s">
         <v>293</v>
       </c>
-      <c r="B295">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296">
+        <v>2</v>
+      </c>
+      <c r="B296" t="s">
         <v>294</v>
       </c>
-      <c r="B296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297" t="s">
         <v>295</v>
       </c>
-      <c r="B297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298">
+        <v>3</v>
+      </c>
+      <c r="B298" t="s">
         <v>296</v>
       </c>
-      <c r="B298">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299">
+        <v>2</v>
+      </c>
+      <c r="B299" t="s">
         <v>297</v>
       </c>
-      <c r="B299">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300">
+        <v>3</v>
+      </c>
+      <c r="B300" t="s">
         <v>298</v>
       </c>
-      <c r="B300">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301">
+        <v>2</v>
+      </c>
+      <c r="B301" t="s">
         <v>299</v>
       </c>
-      <c r="B301">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302">
+        <v>2</v>
+      </c>
+      <c r="B302" t="s">
         <v>300</v>
       </c>
-      <c r="B302">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303">
+        <v>2</v>
+      </c>
+      <c r="B303" t="s">
         <v>301</v>
       </c>
-      <c r="B303">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304">
+        <v>3</v>
+      </c>
+      <c r="B304" t="s">
         <v>302</v>
       </c>
-      <c r="B304">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305">
+        <v>2</v>
+      </c>
+      <c r="B305" t="s">
         <v>303</v>
       </c>
-      <c r="B305">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306">
+        <v>2</v>
+      </c>
+      <c r="B306" t="s">
         <v>304</v>
       </c>
-      <c r="B306">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307">
+        <v>3</v>
+      </c>
+      <c r="B307" t="s">
         <v>305</v>
       </c>
-      <c r="B307">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308">
+        <v>1</v>
+      </c>
+      <c r="B308" t="s">
         <v>306</v>
       </c>
-      <c r="B308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309">
+        <v>2</v>
+      </c>
+      <c r="B309" t="s">
         <v>307</v>
       </c>
-      <c r="B309">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310">
+        <v>2</v>
+      </c>
+      <c r="B310" t="s">
         <v>308</v>
       </c>
-      <c r="B310">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311">
+        <v>3</v>
+      </c>
+      <c r="B311" t="s">
         <v>309</v>
       </c>
-      <c r="B311">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312">
+        <v>2</v>
+      </c>
+      <c r="B312" t="s">
         <v>310</v>
       </c>
-      <c r="B312">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313">
+        <v>3</v>
+      </c>
+      <c r="B313" t="s">
         <v>311</v>
       </c>
-      <c r="B313">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314">
+        <v>2</v>
+      </c>
+      <c r="B314" t="s">
         <v>312</v>
       </c>
-      <c r="B314">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315">
+        <v>2</v>
+      </c>
+      <c r="B315" t="s">
         <v>313</v>
       </c>
-      <c r="B315">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316">
+        <v>3</v>
+      </c>
+      <c r="B316" t="s">
         <v>314</v>
       </c>
-      <c r="B316">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317">
+        <v>3</v>
+      </c>
+      <c r="B317" t="s">
         <v>315</v>
       </c>
-      <c r="B317">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="B318" t="s">
         <v>316</v>
       </c>
-      <c r="B318">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319">
+        <v>1</v>
+      </c>
+      <c r="B319" t="s">
         <v>317</v>
       </c>
-      <c r="B319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320">
+        <v>2</v>
+      </c>
+      <c r="B320" t="s">
         <v>318</v>
       </c>
-      <c r="B320">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321">
+        <v>3</v>
+      </c>
+      <c r="B321" t="s">
         <v>319</v>
       </c>
-      <c r="B321">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322">
+        <v>2</v>
+      </c>
+      <c r="B322" t="s">
         <v>320</v>
       </c>
-      <c r="B322">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323">
+        <v>3</v>
+      </c>
+      <c r="B323" t="s">
         <v>321</v>
       </c>
-      <c r="B323">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324">
+        <v>2</v>
+      </c>
+      <c r="B324" t="s">
         <v>322</v>
       </c>
-      <c r="B324">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325">
+        <v>2</v>
+      </c>
+      <c r="B325" t="s">
         <v>323</v>
       </c>
-      <c r="B325">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326">
+        <v>2</v>
+      </c>
+      <c r="B326" t="s">
         <v>324</v>
       </c>
-      <c r="B326">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327">
+        <v>2</v>
+      </c>
+      <c r="B327" t="s">
         <v>325</v>
       </c>
-      <c r="B327">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328">
+        <v>2</v>
+      </c>
+      <c r="B328" t="s">
         <v>326</v>
       </c>
-      <c r="B328">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329">
+        <v>2</v>
+      </c>
+      <c r="B329" t="s">
         <v>327</v>
       </c>
-      <c r="B329">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330">
+        <v>3</v>
+      </c>
+      <c r="B330" t="s">
         <v>328</v>
       </c>
-      <c r="B330">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331" t="s">
         <v>329</v>
       </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332">
+        <v>3</v>
+      </c>
+      <c r="B332" t="s">
         <v>330</v>
       </c>
-      <c r="B332">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333">
+        <v>3</v>
+      </c>
+      <c r="B333" t="s">
         <v>331</v>
       </c>
-      <c r="B333">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334">
+        <v>2</v>
+      </c>
+      <c r="B334" t="s">
         <v>332</v>
       </c>
-      <c r="B334">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335">
+        <v>2</v>
+      </c>
+      <c r="B335" t="s">
         <v>333</v>
       </c>
-      <c r="B335">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <v>2</v>
+      </c>
+      <c r="B336" t="s">
         <v>334</v>
       </c>
-      <c r="B336">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <v>2</v>
+      </c>
+      <c r="B337" t="s">
         <v>335</v>
       </c>
-      <c r="B337">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <v>2</v>
+      </c>
+      <c r="B338" t="s">
         <v>336</v>
       </c>
-      <c r="B338">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <v>2</v>
+      </c>
+      <c r="B339" t="s">
         <v>337</v>
       </c>
-      <c r="B339">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <v>1</v>
+      </c>
+      <c r="B340" t="s">
         <v>338</v>
       </c>
-      <c r="B340">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <v>2</v>
+      </c>
+      <c r="B341" t="s">
         <v>339</v>
       </c>
-      <c r="B341">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <v>2</v>
+      </c>
+      <c r="B342" t="s">
         <v>340</v>
       </c>
-      <c r="B342">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <v>1</v>
+      </c>
+      <c r="B343" t="s">
         <v>341</v>
       </c>
-      <c r="B343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <v>2</v>
+      </c>
+      <c r="B344" t="s">
         <v>342</v>
       </c>
-      <c r="B344">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <v>2</v>
+      </c>
+      <c r="B345" t="s">
         <v>343</v>
       </c>
-      <c r="B345">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <v>2</v>
+      </c>
+      <c r="B346" t="s">
         <v>344</v>
       </c>
-      <c r="B346">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <v>2</v>
+      </c>
+      <c r="B347" t="s">
         <v>345</v>
       </c>
-      <c r="B347">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <v>2</v>
+      </c>
+      <c r="B348" t="s">
         <v>346</v>
       </c>
-      <c r="B348">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <v>2</v>
+      </c>
+      <c r="B349" t="s">
         <v>347</v>
       </c>
-      <c r="B349">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <v>1</v>
+      </c>
+      <c r="B350" t="s">
         <v>348</v>
       </c>
-      <c r="B350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <v>3</v>
+      </c>
+      <c r="B351" t="s">
         <v>349</v>
       </c>
-      <c r="B351">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <v>2</v>
+      </c>
+      <c r="B352" t="s">
         <v>350</v>
       </c>
-      <c r="B352">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <v>2</v>
+      </c>
+      <c r="B353" t="s">
         <v>351</v>
       </c>
-      <c r="B353">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <v>3</v>
+      </c>
+      <c r="B354" t="s">
         <v>352</v>
       </c>
-      <c r="B354">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <v>2</v>
+      </c>
+      <c r="B355" t="s">
         <v>353</v>
       </c>
-      <c r="B355">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <v>3</v>
+      </c>
+      <c r="B356" t="s">
         <v>354</v>
       </c>
-      <c r="B356">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <v>2</v>
+      </c>
+      <c r="B357" t="s">
         <v>355</v>
       </c>
-      <c r="B357">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <v>2</v>
+      </c>
+      <c r="B358" t="s">
         <v>356</v>
       </c>
-      <c r="B358">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <v>2</v>
+      </c>
+      <c r="B359" t="s">
         <v>357</v>
       </c>
-      <c r="B359">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <v>3</v>
+      </c>
+      <c r="B360" t="s">
         <v>358</v>
       </c>
-      <c r="B360">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <v>3</v>
+      </c>
+      <c r="B361" t="s">
         <v>359</v>
       </c>
-      <c r="B361">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <v>2</v>
+      </c>
+      <c r="B362" t="s">
         <v>360</v>
       </c>
-      <c r="B362">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <v>2</v>
+      </c>
+      <c r="B363" t="s">
         <v>361</v>
       </c>
-      <c r="B363">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <v>2</v>
+      </c>
+      <c r="B364" t="s">
         <v>362</v>
       </c>
-      <c r="B364">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <v>2</v>
+      </c>
+      <c r="B365" t="s">
         <v>363</v>
       </c>
-      <c r="B365">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <v>1</v>
+      </c>
+      <c r="B366" t="s">
         <v>364</v>
       </c>
-      <c r="B366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>2</v>
+      </c>
+      <c r="B367" t="s">
         <v>365</v>
       </c>
-      <c r="B367">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368">
+        <v>2</v>
+      </c>
+      <c r="B368" t="s">
         <v>366</v>
       </c>
-      <c r="B368">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369">
+        <v>3</v>
+      </c>
+      <c r="B369" t="s">
         <v>367</v>
       </c>
-      <c r="B369">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370">
+        <v>2</v>
+      </c>
+      <c r="B370" t="s">
         <v>368</v>
       </c>
-      <c r="B370">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371">
+        <v>2</v>
+      </c>
+      <c r="B371" t="s">
         <v>369</v>
       </c>
-      <c r="B371">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372">
+        <v>3</v>
+      </c>
+      <c r="B372" t="s">
         <v>370</v>
       </c>
-      <c r="B372">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373">
+        <v>2</v>
+      </c>
+      <c r="B373" t="s">
         <v>371</v>
       </c>
-      <c r="B373">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374">
+        <v>2</v>
+      </c>
+      <c r="B374" t="s">
         <v>372</v>
       </c>
-      <c r="B374">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375">
+        <v>3</v>
+      </c>
+      <c r="B375" t="s">
         <v>373</v>
       </c>
-      <c r="B375">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376">
+        <v>1</v>
+      </c>
+      <c r="B376" t="s">
         <v>374</v>
       </c>
-      <c r="B376">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377">
+        <v>2</v>
+      </c>
+      <c r="B377" t="s">
         <v>375</v>
       </c>
-      <c r="B377">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378">
+        <v>2</v>
+      </c>
+      <c r="B378" t="s">
         <v>376</v>
       </c>
-      <c r="B378">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379">
+        <v>2</v>
+      </c>
+      <c r="B379" t="s">
         <v>377</v>
       </c>
-      <c r="B379">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380">
+        <v>2</v>
+      </c>
+      <c r="B380" t="s">
         <v>378</v>
       </c>
-      <c r="B380">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381">
+        <v>2</v>
+      </c>
+      <c r="B381" t="s">
         <v>379</v>
       </c>
-      <c r="B381">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382">
+        <v>2</v>
+      </c>
+      <c r="B382" t="s">
         <v>380</v>
       </c>
-      <c r="B382">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383">
+        <v>3</v>
+      </c>
+      <c r="B383" t="s">
         <v>381</v>
       </c>
-      <c r="B383">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384">
+        <v>1</v>
+      </c>
+      <c r="B384" t="s">
         <v>382</v>
       </c>
-      <c r="B384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385">
+        <v>1</v>
+      </c>
+      <c r="B385" t="s">
         <v>383</v>
       </c>
-      <c r="B385">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386">
+        <v>3</v>
+      </c>
+      <c r="B386" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B386">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387">
+        <v>2</v>
+      </c>
+      <c r="B387" t="s">
         <v>385</v>
       </c>
-      <c r="B387">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388">
+        <v>2</v>
+      </c>
+      <c r="B388" t="s">
         <v>386</v>
       </c>
-      <c r="B388">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389">
+        <v>2</v>
+      </c>
+      <c r="B389" t="s">
         <v>387</v>
       </c>
-      <c r="B389">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390">
+        <v>2</v>
+      </c>
+      <c r="B390" t="s">
         <v>388</v>
       </c>
-      <c r="B390">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391">
+        <v>3</v>
+      </c>
+      <c r="B391" t="s">
         <v>389</v>
       </c>
-      <c r="B391">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392">
+        <v>2</v>
+      </c>
+      <c r="B392" t="s">
         <v>390</v>
       </c>
-      <c r="B392">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393">
+        <v>2</v>
+      </c>
+      <c r="B393" t="s">
         <v>391</v>
       </c>
-      <c r="B393">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394">
+        <v>2</v>
+      </c>
+      <c r="B394" t="s">
         <v>392</v>
       </c>
-      <c r="B394">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395">
+        <v>2</v>
+      </c>
+      <c r="B395" t="s">
         <v>393</v>
       </c>
-      <c r="B395">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396">
+        <v>3</v>
+      </c>
+      <c r="B396" t="s">
         <v>394</v>
       </c>
-      <c r="B396">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397">
+        <v>3</v>
+      </c>
+      <c r="B397" t="s">
         <v>395</v>
       </c>
-      <c r="B397">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398">
+        <v>1</v>
+      </c>
+      <c r="B398" t="s">
         <v>396</v>
       </c>
-      <c r="B398">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399">
+        <v>3</v>
+      </c>
+      <c r="B399" t="s">
         <v>397</v>
       </c>
-      <c r="B399">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400">
+        <v>2</v>
+      </c>
+      <c r="B400" t="s">
         <v>398</v>
       </c>
-      <c r="B400">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" s="4">
+        <v>2</v>
+      </c>
+      <c r="B401" t="s">
         <v>399</v>
-      </c>
-      <c r="B401" s="4">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5999,16 +5996,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B319"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H303" sqref="H303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>719</v>
       </c>
@@ -6016,7 +6013,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6024,7 +6021,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6032,7 +6029,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6040,7 +6037,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -6048,7 +6045,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -6056,7 +6053,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -6064,7 +6061,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -6072,7 +6069,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -6080,7 +6077,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -6088,7 +6085,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -6096,7 +6093,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -6104,7 +6101,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -6112,7 +6109,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -6120,7 +6117,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -6128,7 +6125,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -6136,7 +6133,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -6144,7 +6141,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>2</v>
       </c>
@@ -6152,7 +6149,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>2</v>
       </c>
@@ -6160,7 +6157,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>3</v>
       </c>
@@ -6168,7 +6165,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -6176,7 +6173,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>2</v>
       </c>
@@ -6184,7 +6181,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -6192,7 +6189,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -6200,7 +6197,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>3</v>
       </c>
@@ -6208,7 +6205,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -6216,7 +6213,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -6224,7 +6221,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -6232,7 +6229,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -6240,7 +6237,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -6248,7 +6245,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>3</v>
       </c>
@@ -6256,7 +6253,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>3</v>
       </c>
@@ -6264,7 +6261,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>3</v>
       </c>
@@ -6272,7 +6269,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -6280,7 +6277,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>3</v>
       </c>
@@ -6288,7 +6285,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -6296,7 +6293,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>2</v>
       </c>
@@ -6304,7 +6301,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>2</v>
       </c>
@@ -6312,7 +6309,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>3</v>
       </c>
@@ -6320,7 +6317,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>3</v>
       </c>
@@ -6328,7 +6325,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>2</v>
       </c>
@@ -6336,7 +6333,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>2</v>
       </c>
@@ -6344,7 +6341,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>2</v>
       </c>
@@ -6352,7 +6349,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>3</v>
       </c>
@@ -6360,7 +6357,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>3</v>
       </c>
@@ -6368,7 +6365,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -6376,7 +6373,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -6384,7 +6381,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>2</v>
       </c>
@@ -6392,7 +6389,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>2</v>
       </c>
@@ -6400,7 +6397,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>2</v>
       </c>
@@ -6408,7 +6405,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>2</v>
       </c>
@@ -6416,7 +6413,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>2</v>
       </c>
@@ -6424,7 +6421,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>2</v>
       </c>
@@ -6432,7 +6429,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -6440,7 +6437,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>2</v>
       </c>
@@ -6448,7 +6445,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>2</v>
       </c>
@@ -6456,7 +6453,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -6464,7 +6461,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -6472,7 +6469,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>2</v>
       </c>
@@ -6480,7 +6477,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -6488,7 +6485,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -6496,7 +6493,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>2</v>
       </c>
@@ -6504,7 +6501,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>2</v>
       </c>
@@ -6512,7 +6509,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>2</v>
       </c>
@@ -6520,7 +6517,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>3</v>
       </c>
@@ -6528,7 +6525,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>1</v>
       </c>
@@ -6536,7 +6533,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>2</v>
       </c>
@@ -6544,7 +6541,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>2</v>
       </c>
@@ -6552,7 +6549,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>2</v>
       </c>
@@ -6560,7 +6557,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>3</v>
       </c>
@@ -6568,7 +6565,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>2</v>
       </c>
@@ -6576,7 +6573,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>2</v>
       </c>
@@ -6584,7 +6581,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>2</v>
       </c>
@@ -6592,7 +6589,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>1</v>
       </c>
@@ -6600,7 +6597,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>2</v>
       </c>
@@ -6608,7 +6605,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>2</v>
       </c>
@@ -6616,7 +6613,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>3</v>
       </c>
@@ -6624,7 +6621,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>2</v>
       </c>
@@ -6632,7 +6629,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>2</v>
       </c>
@@ -6640,7 +6637,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>3</v>
       </c>
@@ -6648,7 +6645,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>3</v>
       </c>
@@ -6656,7 +6653,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>3</v>
       </c>
@@ -6664,7 +6661,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>2</v>
       </c>
@@ -6672,7 +6669,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>2</v>
       </c>
@@ -6680,7 +6677,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>2</v>
       </c>
@@ -6688,7 +6685,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>3</v>
       </c>
@@ -6696,7 +6693,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>2</v>
       </c>
@@ -6704,7 +6701,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>3</v>
       </c>
@@ -6712,7 +6709,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>3</v>
       </c>
@@ -6720,7 +6717,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>2</v>
       </c>
@@ -6728,7 +6725,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>2</v>
       </c>
@@ -6736,7 +6733,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>2</v>
       </c>
@@ -6744,7 +6741,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>2</v>
       </c>
@@ -6752,7 +6749,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>3</v>
       </c>
@@ -6760,7 +6757,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>3</v>
       </c>
@@ -6768,7 +6765,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>3</v>
       </c>
@@ -6776,7 +6773,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>3</v>
       </c>
@@ -6784,7 +6781,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>2</v>
       </c>
@@ -6792,7 +6789,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>3</v>
       </c>
@@ -6800,7 +6797,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>2</v>
       </c>
@@ -6808,7 +6805,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>2</v>
       </c>
@@ -6816,7 +6813,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>3</v>
       </c>
@@ -6824,7 +6821,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>2</v>
       </c>
@@ -6832,7 +6829,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>3</v>
       </c>
@@ -6840,7 +6837,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>3</v>
       </c>
@@ -6848,7 +6845,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>1</v>
       </c>
@@ -6856,7 +6853,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>2</v>
       </c>
@@ -6864,7 +6861,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>2</v>
       </c>
@@ -6872,7 +6869,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>2</v>
       </c>
@@ -6880,7 +6877,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>3</v>
       </c>
@@ -6888,7 +6885,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>1</v>
       </c>
@@ -6896,7 +6893,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>3</v>
       </c>
@@ -6904,7 +6901,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>3</v>
       </c>
@@ -6912,7 +6909,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>3</v>
       </c>
@@ -6920,7 +6917,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>3</v>
       </c>
@@ -6928,7 +6925,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>3</v>
       </c>
@@ -6936,7 +6933,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>3</v>
       </c>
@@ -6944,7 +6941,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>2</v>
       </c>
@@ -6952,7 +6949,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>3</v>
       </c>
@@ -6960,7 +6957,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>2</v>
       </c>
@@ -6968,7 +6965,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>2</v>
       </c>
@@ -6976,7 +6973,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>2</v>
       </c>
@@ -6984,7 +6981,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>2</v>
       </c>
@@ -6992,7 +6989,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>2</v>
       </c>
@@ -7000,7 +6997,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>2</v>
       </c>
@@ -7008,7 +7005,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>2</v>
       </c>
@@ -7016,7 +7013,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>2</v>
       </c>
@@ -7024,7 +7021,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>2</v>
       </c>
@@ -7032,7 +7029,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>1</v>
       </c>
@@ -7040,7 +7037,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>2</v>
       </c>
@@ -7048,7 +7045,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>3</v>
       </c>
@@ -7056,7 +7053,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>2</v>
       </c>
@@ -7064,7 +7061,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>2</v>
       </c>
@@ -7072,7 +7069,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>2</v>
       </c>
@@ -7080,7 +7077,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>3</v>
       </c>
@@ -7088,7 +7085,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>2</v>
       </c>
@@ -7096,7 +7093,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>1</v>
       </c>
@@ -7104,7 +7101,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>3</v>
       </c>
@@ -7112,7 +7109,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>3</v>
       </c>
@@ -7120,7 +7117,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>3</v>
       </c>
@@ -7128,7 +7125,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>2</v>
       </c>
@@ -7136,7 +7133,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>3</v>
       </c>
@@ -7144,7 +7141,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>2</v>
       </c>
@@ -7152,7 +7149,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>2</v>
       </c>
@@ -7160,7 +7157,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>2</v>
       </c>
@@ -7168,7 +7165,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>2</v>
       </c>
@@ -7176,7 +7173,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>3</v>
       </c>
@@ -7184,7 +7181,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>2</v>
       </c>
@@ -7192,7 +7189,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>3</v>
       </c>
@@ -7200,7 +7197,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>2</v>
       </c>
@@ -7208,7 +7205,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>2</v>
       </c>
@@ -7216,7 +7213,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>2</v>
       </c>
@@ -7224,7 +7221,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>3</v>
       </c>
@@ -7232,7 +7229,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>2</v>
       </c>
@@ -7240,7 +7237,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>3</v>
       </c>
@@ -7248,7 +7245,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>3</v>
       </c>
@@ -7256,7 +7253,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>3</v>
       </c>
@@ -7264,7 +7261,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>2</v>
       </c>
@@ -7272,7 +7269,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>2</v>
       </c>
@@ -7280,7 +7277,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>2</v>
       </c>
@@ -7288,7 +7285,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="3">
         <v>3</v>
       </c>
@@ -7296,7 +7293,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="3">
         <v>2</v>
       </c>
@@ -7304,7 +7301,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="3">
         <v>3</v>
       </c>
@@ -7312,7 +7309,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="3">
         <v>2</v>
       </c>
@@ -7320,7 +7317,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="3">
         <v>1</v>
       </c>
@@ -7328,7 +7325,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="3">
         <v>3</v>
       </c>
@@ -7336,7 +7333,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="3">
         <v>1</v>
       </c>
@@ -7344,7 +7341,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="3">
         <v>2</v>
       </c>
@@ -7352,7 +7349,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="3">
         <v>2</v>
       </c>
@@ -7360,7 +7357,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="3">
         <v>2</v>
       </c>
@@ -7368,7 +7365,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="3">
         <v>2</v>
       </c>
@@ -7376,7 +7373,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="3">
         <v>3</v>
       </c>
@@ -7384,7 +7381,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="3">
         <v>2</v>
       </c>
@@ -7392,7 +7389,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="3">
         <v>2</v>
       </c>
@@ -7400,7 +7397,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="3">
         <v>3</v>
       </c>
@@ -7408,7 +7405,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="3">
         <v>2</v>
       </c>
@@ -7416,7 +7413,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="3">
         <v>2</v>
       </c>
@@ -7424,7 +7421,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="3">
         <v>3</v>
       </c>
@@ -7432,7 +7429,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="3">
         <v>1</v>
       </c>
@@ -7440,7 +7437,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="3">
         <v>2</v>
       </c>
@@ -7448,7 +7445,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="3">
         <v>3</v>
       </c>
@@ -7456,7 +7453,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="3">
         <v>2</v>
       </c>
@@ -7464,7 +7461,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="3">
         <v>3</v>
       </c>
@@ -7472,7 +7469,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="3">
         <v>3</v>
       </c>
@@ -7480,7 +7477,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="3">
         <v>1</v>
       </c>
@@ -7488,7 +7485,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="3">
         <v>3</v>
       </c>
@@ -7496,7 +7493,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="3">
         <v>3</v>
       </c>
@@ -7504,7 +7501,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="3">
         <v>2</v>
       </c>
@@ -7512,7 +7509,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="3">
         <v>2</v>
       </c>
@@ -7520,7 +7517,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="3">
         <v>1</v>
       </c>
@@ -7528,7 +7525,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="3">
         <v>3</v>
       </c>
@@ -7536,7 +7533,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="3">
         <v>3</v>
       </c>
@@ -7544,7 +7541,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="3">
         <v>2</v>
       </c>
@@ -7552,7 +7549,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="3">
         <v>1</v>
       </c>
@@ -7560,7 +7557,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="3">
         <v>2</v>
       </c>
@@ -7568,7 +7565,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="3">
         <v>2</v>
       </c>
@@ -7576,7 +7573,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="3">
         <v>2</v>
       </c>
@@ -7584,7 +7581,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="3">
         <v>2</v>
       </c>
@@ -7592,7 +7589,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="3">
         <v>3</v>
       </c>
@@ -7600,7 +7597,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="3">
         <v>2</v>
       </c>
@@ -7608,7 +7605,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="3">
         <v>3</v>
       </c>
@@ -7616,7 +7613,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="3">
         <v>3</v>
       </c>
@@ -7624,7 +7621,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="3">
         <v>3</v>
       </c>
@@ -7632,7 +7629,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="3">
         <v>2</v>
       </c>
@@ -7640,7 +7637,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="3">
         <v>3</v>
       </c>
@@ -7648,7 +7645,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="3">
         <v>3</v>
       </c>
@@ -7656,7 +7653,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="3">
         <v>2</v>
       </c>
@@ -7664,7 +7661,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="3">
         <v>1</v>
       </c>
@@ -7672,7 +7669,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="3">
         <v>2</v>
       </c>
@@ -7680,7 +7677,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="3">
         <v>2</v>
       </c>
@@ -7688,7 +7685,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="3">
         <v>2</v>
       </c>
@@ -7696,7 +7693,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="3">
         <v>3</v>
       </c>
@@ -7704,7 +7701,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="3">
         <v>2</v>
       </c>
@@ -7712,7 +7709,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="3">
         <v>2</v>
       </c>
@@ -7720,7 +7717,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="3">
         <v>2</v>
       </c>
@@ -7728,7 +7725,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="3">
         <v>2</v>
       </c>
@@ -7736,7 +7733,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="3">
         <v>2</v>
       </c>
@@ -7744,7 +7741,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="3">
         <v>2</v>
       </c>
@@ -7752,7 +7749,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="3">
         <v>2</v>
       </c>
@@ -7760,7 +7757,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="3">
         <v>3</v>
       </c>
@@ -7768,7 +7765,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="3">
         <v>2</v>
       </c>
@@ -7776,7 +7773,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="3">
         <v>2</v>
       </c>
@@ -7784,7 +7781,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="3">
         <v>3</v>
       </c>
@@ -7792,7 +7789,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="3">
         <v>1</v>
       </c>
@@ -7800,7 +7797,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="3">
         <v>2</v>
       </c>
@@ -7808,7 +7805,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="3">
         <v>2</v>
       </c>
@@ -7816,7 +7813,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="3">
         <v>3</v>
       </c>
@@ -7824,7 +7821,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="3">
         <v>3</v>
       </c>
@@ -7832,7 +7829,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="3">
         <v>3</v>
       </c>
@@ -7840,7 +7837,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="3">
         <v>2</v>
       </c>
@@ -7848,7 +7845,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="3">
         <v>2</v>
       </c>
@@ -7856,7 +7853,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="3">
         <v>3</v>
       </c>
@@ -7864,7 +7861,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="3">
         <v>3</v>
       </c>
@@ -7872,7 +7869,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="3">
         <v>2</v>
       </c>
@@ -7880,7 +7877,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="3">
         <v>2</v>
       </c>
@@ -7888,7 +7885,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="3">
         <v>1</v>
       </c>
@@ -7896,7 +7893,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="3">
         <v>2</v>
       </c>
@@ -7904,7 +7901,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="3">
         <v>3</v>
       </c>
@@ -7912,7 +7909,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="3">
         <v>1</v>
       </c>
@@ -7920,7 +7917,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="3">
         <v>2</v>
       </c>
@@ -7928,7 +7925,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="3">
         <v>2</v>
       </c>
@@ -7936,7 +7933,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="3">
         <v>2</v>
       </c>
@@ -7944,7 +7941,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="3">
         <v>3</v>
       </c>
@@ -7952,7 +7949,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="3">
         <v>3</v>
       </c>
@@ -7960,7 +7957,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="3">
         <v>1</v>
       </c>
@@ -7968,7 +7965,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="3">
         <v>3</v>
       </c>
@@ -7976,7 +7973,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" s="3">
         <v>2</v>
       </c>
@@ -7984,7 +7981,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" s="3">
         <v>3</v>
       </c>
@@ -7992,7 +7989,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" s="3">
         <v>2</v>
       </c>
@@ -8000,7 +7997,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" s="3">
         <v>3</v>
       </c>
@@ -8008,7 +8005,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" s="3">
         <v>2</v>
       </c>
@@ -8016,7 +8013,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" s="3">
         <v>2</v>
       </c>
@@ -8024,7 +8021,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="3">
         <v>2</v>
       </c>
@@ -8032,7 +8029,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" s="3">
         <v>2</v>
       </c>
@@ -8040,7 +8037,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" s="3">
         <v>1</v>
       </c>
@@ -8048,7 +8045,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" s="3">
         <v>2</v>
       </c>
@@ -8056,7 +8053,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="3">
         <v>3</v>
       </c>
@@ -8064,7 +8061,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="3">
         <v>3</v>
       </c>
@@ -8072,7 +8069,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" s="3">
         <v>3</v>
       </c>
@@ -8080,7 +8077,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" s="3">
         <v>3</v>
       </c>
@@ -8088,7 +8085,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" s="3">
         <v>3</v>
       </c>
@@ -8096,7 +8093,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="3">
         <v>3</v>
       </c>
@@ -8104,7 +8101,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" s="3">
         <v>2</v>
       </c>
@@ -8112,7 +8109,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" s="3">
         <v>3</v>
       </c>
@@ -8120,7 +8117,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" s="3">
         <v>3</v>
       </c>
@@ -8128,7 +8125,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="3">
         <v>2</v>
       </c>
@@ -8136,7 +8133,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" s="3">
         <v>1</v>
       </c>
@@ -8144,7 +8141,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="3">
         <v>2</v>
       </c>
@@ -8152,7 +8149,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" s="3">
         <v>3</v>
       </c>
@@ -8160,7 +8157,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" s="3">
         <v>2</v>
       </c>
@@ -8168,7 +8165,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" s="3">
         <v>3</v>
       </c>
@@ -8176,7 +8173,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" s="3">
         <v>2</v>
       </c>
@@ -8184,7 +8181,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" s="3">
         <v>3</v>
       </c>
@@ -8192,7 +8189,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" s="3">
         <v>3</v>
       </c>
@@ -8200,7 +8197,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" s="3">
         <v>3</v>
       </c>
@@ -8208,7 +8205,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="3">
         <v>1</v>
       </c>
@@ -8216,7 +8213,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" s="3">
         <v>3</v>
       </c>
@@ -8224,7 +8221,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" s="3">
         <v>3</v>
       </c>
@@ -8232,7 +8229,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" s="3">
         <v>2</v>
       </c>
@@ -8240,7 +8237,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" s="3">
         <v>3</v>
       </c>
@@ -8248,7 +8245,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" s="3">
         <v>2</v>
       </c>
@@ -8256,7 +8253,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" s="3">
         <v>2</v>
       </c>
@@ -8264,7 +8261,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="3">
         <v>2</v>
       </c>
@@ -8272,7 +8269,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="3">
         <v>1</v>
       </c>
@@ -8280,7 +8277,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="3">
         <v>1</v>
       </c>
@@ -8288,7 +8285,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="3">
         <v>2</v>
       </c>
@@ -8296,7 +8293,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" s="3">
         <v>2</v>
       </c>
@@ -8304,7 +8301,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" s="3">
         <v>3</v>
       </c>
@@ -8312,7 +8309,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" s="3">
         <v>3</v>
       </c>
@@ -8320,7 +8317,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" s="3">
         <v>3</v>
       </c>
@@ -8328,7 +8325,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="3">
         <v>2</v>
       </c>
@@ -8336,7 +8333,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" s="3">
         <v>2</v>
       </c>
@@ -8344,7 +8341,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="3">
         <v>3</v>
       </c>
@@ -8352,7 +8349,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="3">
         <v>2</v>
       </c>
@@ -8360,7 +8357,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" s="3">
         <v>2</v>
       </c>
@@ -8368,7 +8365,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" s="3">
         <v>2</v>
       </c>
@@ -8376,7 +8373,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" s="3">
         <v>3</v>
       </c>
@@ -8384,7 +8381,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="3">
         <v>2</v>
       </c>
@@ -8392,7 +8389,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="3">
         <v>3</v>
       </c>
@@ -8400,7 +8397,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" s="3">
         <v>3</v>
       </c>
@@ -8408,7 +8405,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="3">
         <v>2</v>
       </c>
@@ -8416,7 +8413,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="3">
         <v>1</v>
       </c>
@@ -8424,7 +8421,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" s="3">
         <v>2</v>
       </c>
@@ -8432,7 +8429,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" s="3">
         <v>2</v>
       </c>
@@ -8440,7 +8437,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" s="3">
         <v>2</v>
       </c>
@@ -8448,7 +8445,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" s="3">
         <v>2</v>
       </c>
@@ -8456,7 +8453,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" s="3">
         <v>1</v>
       </c>
@@ -8464,7 +8461,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" s="3">
         <v>2</v>
       </c>
@@ -8472,7 +8469,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" s="3">
         <v>2</v>
       </c>
@@ -8480,7 +8477,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" s="3">
         <v>2</v>
       </c>
@@ -8488,7 +8485,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" s="3">
         <v>2</v>
       </c>
@@ -8496,7 +8493,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" s="3">
         <v>2</v>
       </c>
@@ -8504,7 +8501,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" s="3">
         <v>2</v>
       </c>
@@ -8512,7 +8509,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" s="3">
         <v>2</v>
       </c>
@@ -8520,7 +8517,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" s="3">
         <v>3</v>
       </c>
@@ -8528,7 +8525,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" s="3">
         <v>2</v>
       </c>
@@ -8536,7 +8533,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" s="3">
         <v>2</v>
       </c>
@@ -8544,7 +8541,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" s="3">
         <v>3</v>
       </c>
@@ -8552,7 +8549,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" s="3">
         <v>1</v>
       </c>

--- a/mibr.xlsx
+++ b/mibr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Insper\2º Semestre\Cdados2\p1_dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Insper\2º Semestre\Cdados2\p1_dados - Copia (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1994F1E-F96D-480E-BF28-DE8D9E341B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEBBF54-A15B-46D6-98AC-D255C6A75ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="720">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2421,7 +2421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2431,6 +2431,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2771,16 +2772,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B379" workbookViewId="0">
-      <selection activeCell="B386" sqref="B386"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
     <col min="2" max="2" width="187" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>719</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>

--- a/mibr.xlsx
+++ b/mibr.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Insper\2º Semestre\Cdados2\p1_dados - Copia (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Insper\2º Semestre\Cdados2\p1_dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEBBF54-A15B-46D6-98AC-D255C6A75ED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA52930-4ABF-4030-B815-6DB951D871F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="721">
   <si>
     <t>Treinamento</t>
   </si>
@@ -2355,6 +2355,9 @@
   </si>
   <si>
     <t>Classificação</t>
+  </si>
+  <si>
+    <t>Classificacao</t>
   </si>
 </sst>
 </file>
@@ -2782,7 +2785,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
